--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,34 +453,561 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5225524</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[8]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>46390268</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[16]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>93470360</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[7]</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[2]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>49586579</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[8]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[4]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>143252866</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[110]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>49862547</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[3]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>49658340</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>143214363</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>143212866</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[54]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>143217198</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[18]</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[180]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>125178836</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[19]</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>[39]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>49601484</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[21]</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[37]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>49659418</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[24]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[17]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>143192674</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[27]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[91]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>49661405</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[29]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[86]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>143202500</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[31]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[78]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>125179771</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[32]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[72]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>143262551</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[33]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[145]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>143232740</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[34]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[100]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>125182247</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[35]</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[140]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>143219620</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[36]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[121]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>143184626</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[37]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>[90]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>143254392</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[38]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>[47]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>143264422</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[45]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>[124]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>143239366</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[47]</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>[172]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>49666171</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[48]</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>[93]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>11721921</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[50]</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>[106]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>103921</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[58]</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[331]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>109224</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[66]</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[305]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>49149159</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[69]</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[334]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2031</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[75]</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>[154]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[80]</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>[250]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>49709299</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[86]</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[343]</t>
         </is>
       </c>
     </row>
